--- a/src/main/resources/schema.xlsx
+++ b/src/main/resources/schema.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFDE90D-4B1C-4A31-BB5A-587ECA9140E9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A64552-213F-482F-B0F5-F3BD6B3EA73D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="44">
   <si>
     <t>type</t>
   </si>
@@ -51,9 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>class</t>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,30 +97,6 @@
   <si>
     <t>fieldType字段</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>solr.TextField</t>
-  </si>
-  <si>
-    <t>index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org.wltea.analyzer.lucene.IKAnalyzer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>query</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>an_type1</t>
-  </si>
-  <si>
-    <t>an_type2</t>
-  </si>
-  <si>
-    <t>an_class</t>
   </si>
   <si>
     <t>使用说明:默认值不为null的列可以不写值，不写的时候给列值为默认值。默认值可以修改为自己想要的值。
@@ -132,23 +105,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便叫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr.TextField</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTPositionIncrementGap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TKMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIgnoreCase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FWords</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>net.paoding.analysis.analyzer.solr.ChineseTokenizerFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>most-words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr.LowerCaseFilterFactory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solr.StopFilterFactory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -156,99 +185,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>it_*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cast_*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>na</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
+    <t>lang/stopwords_th.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>query</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,18 +294,6 @@
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -377,6 +306,18 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -799,10 +740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:AB25"/>
+  <dimension ref="A2:AG25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -819,385 +760,348 @@
     <col min="17" max="18" width="11.33203125" style="1" customWidth="1"/>
     <col min="19" max="24" width="8.88671875" style="1"/>
     <col min="25" max="25" width="11.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="24.88671875" style="1" customWidth="1"/>
     <col min="27" max="27" width="13.109375" style="1" customWidth="1"/>
     <col min="28" max="28" width="15.33203125" style="1" customWidth="1"/>
     <col min="29" max="29" width="14.21875" style="1" customWidth="1"/>
-    <col min="30" max="16384" width="8.88671875" style="1"/>
+    <col min="30" max="30" width="13.5546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="14.33203125" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="T5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="X5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="10"/>
+      <c r="AB5" s="10"/>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="AB6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG6" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="J5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="T5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="U5" s="5"/>
-      <c r="X5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
-      <c r="AB5" s="5"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="T6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="X6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y6" s="6" t="s">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Z6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB6" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="Z7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P7" s="7" t="s">
+      <c r="AB7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S7" s="7" t="s">
+      <c r="AC7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="W7" s="7" t="s">
+      <c r="AD7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AE7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="X8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AA7" s="1" t="s">
+      <c r="Y8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
+      <c r="AA8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="AD8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="1" t="s">
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="AE9" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="AF9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="1" t="s">
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AA10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>56</v>
+      <c r="AB10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AD11" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="J17" s="8"/>
-      <c r="Y17" s="9"/>
+      <c r="J17" s="4"/>
+      <c r="Y17" s="5"/>
     </row>
     <row r="19" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="N19" s="9"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="25" spans="10:25" x14ac:dyDescent="0.25">
-      <c r="P25" s="10"/>
+      <c r="P25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1228,7 +1132,7 @@
                 <xdr:col>16</xdr:col>
                 <xdr:colOff>30480</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>30480</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
